--- a/data2/data_geral.xlsx
+++ b/data2/data_geral.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3309"/>
+  <dimension ref="A1:G3308"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -76490,32 +76490,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3309">
-      <c r="A3309" t="str">
-        <v>1.27</v>
-      </c>
-      <c r="B3309" t="str">
-        <v>1835</v>
-      </c>
-      <c r="C3309" t="str">
-        <v>Tue Feb 14 12:48:49 2023</v>
-      </c>
-      <c r="D3309" t="str">
-        <v>2023-02-14 12:48:49</v>
-      </c>
-      <c r="E3309" t="str">
-        <v>2023-02-14</v>
-      </c>
-      <c r="F3309" t="str">
-        <v>12:48:49</v>
-      </c>
-      <c r="G3309" t="str">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3309"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3308"/>
   </ignoredErrors>
 </worksheet>
 </file>